--- a/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcC12403.xlsx
+++ b/home/hafsa-report/htdocs/report.hafsa.de/akademi/xlsx/telcC12403.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,45 +471,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Ostapliuk</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Viktoriia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>14-01-1996</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kowel</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Frau</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Raush</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Tatiana</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>28-04-1997</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Sargatskoe</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>009</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Frau</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Münster</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
